--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -13,51 +13,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
-  <si>
-    <t>maths</t>
-  </si>
-  <si>
-    <t>Tue, Wed, Fri</t>
-  </si>
-  <si>
-    <t>caeg</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>chem</t>
-  </si>
-  <si>
-    <t>Sun,Mon,Tue</t>
-  </si>
-  <si>
-    <t>phy</t>
-  </si>
-  <si>
-    <t>Sun,Tue,Wed</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 16:57:21 IST 2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>Tue,Thu,Sat</t>
+  </si>
+  <si>
+    <t>OOPS</t>
+  </si>
+  <si>
+    <t>Mon,Wed,Fri</t>
+  </si>
+  <si>
+    <t>DE Lab</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Java Lab</t>
+  </si>
+  <si>
+    <t>Mon,Wed</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
   </si>
   <si>
     <t>No Class</t>
-  </si>
-  <si>
-    <t>2024-10-13</t>
-  </si>
-  <si>
-    <t>Absent</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 16:35:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 16:56:47 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -83,32 +83,32 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -124,14 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -185,7 +183,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -193,7 +191,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>8</v>
@@ -204,7 +202,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>10</v>
@@ -215,21 +213,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="4">
         <v>9</v>
@@ -237,7 +235,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>13</v>
@@ -248,35 +246,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="6">
         <v>14</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
